--- a/data/trans_dic/P19C07-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.07636797453447357</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.07557535368631907</v>
+        <v>0.07557535368631908</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.06483245725967229</v>
@@ -697,7 +697,7 @@
         <v>0.06554485569110469</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.07350638012336519</v>
+        <v>0.0735063801233652</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03611896413135526</v>
+        <v>0.0379017473332928</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06178672956020259</v>
+        <v>0.06170391172535053</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03446676305134874</v>
+        <v>0.03507168123988111</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0357805021133587</v>
+        <v>0.0382327564509343</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04848541397217992</v>
+        <v>0.0494793033440175</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06192086850729154</v>
+        <v>0.06218887004480077</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05224269957702331</v>
+        <v>0.05233714988286787</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04212866164066718</v>
+        <v>0.03856025278957036</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04941533766004221</v>
+        <v>0.04972088249143001</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06825858756107692</v>
+        <v>0.06850462416491664</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0480108458783521</v>
+        <v>0.05002600077851032</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04791754156984565</v>
+        <v>0.04743575696877136</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08512392689900661</v>
+        <v>0.08442015883503756</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1204990419781806</v>
+        <v>0.1186933080055564</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08540731314360527</v>
+        <v>0.0825173045186</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.121445951141277</v>
+        <v>0.1259310236985423</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09935056757289407</v>
+        <v>0.1004081240917917</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1216859147762906</v>
+        <v>0.1198972049278286</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1054878611395095</v>
+        <v>0.107677194784696</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1213657726687781</v>
+        <v>0.1194197436744506</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08432876725992983</v>
+        <v>0.08451237882762398</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1098373830187722</v>
+        <v>0.1092861083602151</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0847444105587532</v>
+        <v>0.08454585636841121</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1066755623633978</v>
+        <v>0.1088803636769409</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.05496857282196363</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.07840746427437782</v>
+        <v>0.07840746427437784</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.03967008464949497</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02531279448276863</v>
+        <v>0.02532735874553349</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02941912198914074</v>
+        <v>0.03136911169516548</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02236168027331641</v>
+        <v>0.02330202235188922</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0331844181893419</v>
+        <v>0.03279218432378267</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02598815484267452</v>
+        <v>0.02368320241379761</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03642920690289898</v>
+        <v>0.03648189462826957</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03853332895654339</v>
+        <v>0.03597207895132803</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05386114331311782</v>
+        <v>0.05463810269163587</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02867667779076103</v>
+        <v>0.02982483178332243</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03819780772115169</v>
+        <v>0.03728489153685154</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03428773057518991</v>
+        <v>0.03343652457101162</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05031345900904974</v>
+        <v>0.05066773260188517</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06155427812575413</v>
+        <v>0.05911489961109823</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06508107262426055</v>
+        <v>0.06743014631853836</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05634775937889862</v>
+        <v>0.05587736023282163</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09196762094051204</v>
+        <v>0.08987643117699347</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06215433988700449</v>
+        <v>0.06144224246311945</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08154654706414961</v>
+        <v>0.07986993435129562</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07996663791475642</v>
+        <v>0.0773696104779429</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1092039306869751</v>
+        <v>0.1085675830742053</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05287291955084524</v>
+        <v>0.05316398068782097</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06552117670301146</v>
+        <v>0.0661407912177248</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06035378931530699</v>
+        <v>0.0601827560884695</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08645524675197777</v>
+        <v>0.08903821960863843</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.02957966550010097</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.03620251270017213</v>
+        <v>0.03620251270017212</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01095185603212103</v>
+        <v>0.01072852241673169</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01579358438265038</v>
+        <v>0.01531153176334916</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02166375871191408</v>
+        <v>0.02120193740536651</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01966234542130491</v>
+        <v>0.02108400604911019</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01601341387071785</v>
+        <v>0.01546682014044208</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02118891330743655</v>
+        <v>0.02181294480451408</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0145280964421473</v>
+        <v>0.01471530669263344</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02761446003008078</v>
+        <v>0.02694542787955122</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01641512442579733</v>
+        <v>0.01735733236748405</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02159035445693743</v>
+        <v>0.02150647585606075</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02184252766621168</v>
+        <v>0.02094599816600182</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02727629375182189</v>
+        <v>0.02738691150836196</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03507276891759353</v>
+        <v>0.0361325939343193</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0442594124385705</v>
+        <v>0.04468853173820436</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05377524589548454</v>
+        <v>0.05323582220234507</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05154170819740177</v>
+        <v>0.05095342919904239</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04436113024799294</v>
+        <v>0.04373019717688768</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04897190121520918</v>
+        <v>0.04875754814405588</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04007959518912647</v>
+        <v>0.0411946667544413</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05397054288007095</v>
+        <v>0.05514617707775966</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03525167717938735</v>
+        <v>0.03564274848652722</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04055750653056146</v>
+        <v>0.0406468027762923</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04180750325624704</v>
+        <v>0.04186942905853411</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0468270275047146</v>
+        <v>0.04720590620900239</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.01758041000514178</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03419497270494726</v>
+        <v>0.03419497270494727</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.02291658747672857</v>
@@ -1105,7 +1105,7 @@
         <v>0.02380772965161467</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.03434855387242993</v>
+        <v>0.03434855387242994</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02056326326184587</v>
+        <v>0.02041614327976276</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009650212070895741</v>
+        <v>0.009285533335178921</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.007679527049257831</v>
+        <v>0.008048962333155883</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02152022672402537</v>
+        <v>0.02266142704168131</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0110034704797619</v>
+        <v>0.01166530477217719</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.009683499476277693</v>
+        <v>0.009782949009907359</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01828507623282878</v>
+        <v>0.01728221708373943</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02448990952400515</v>
+        <v>0.02466001550573451</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01966365314756026</v>
+        <v>0.01930501562515889</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01248275129693405</v>
+        <v>0.01236774244567206</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01495111661205699</v>
+        <v>0.01578209739836195</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02684585663451858</v>
+        <v>0.02683248122376327</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06029282145240739</v>
+        <v>0.06065690125974393</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03846721483827343</v>
+        <v>0.039306966067609</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03271094029227251</v>
+        <v>0.03266906282013918</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04938442872258237</v>
+        <v>0.05168286979084696</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04107105106877999</v>
+        <v>0.04219051571751346</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03656623388065185</v>
+        <v>0.03772000261943584</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04764646612849997</v>
+        <v>0.04676563777757772</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04564137034714418</v>
+        <v>0.04742407503496644</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0447675857347757</v>
+        <v>0.04228709675541621</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03266199024981368</v>
+        <v>0.03188513755619776</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03469390009417252</v>
+        <v>0.03617910103830305</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04504320678481796</v>
+        <v>0.04474262774869436</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.0174568439921222</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.02113205374666359</v>
+        <v>0.0211320537466636</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.003437102028509294</v>
+        <v>0.003391759786402593</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.00295441298986722</v>
+        <v>0.00298612627079881</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.005561976200887566</v>
+        <v>0.005646974215429955</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.006090055405661393</v>
+        <v>0.00543028930240752</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.007129067495451266</v>
+        <v>0.009172967237464039</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.004878584821473884</v>
+        <v>0.005017509400837762</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.008185822805088205</v>
+        <v>0.008007178491248323</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02046032967499106</v>
+        <v>0.01997045833590427</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.008545757021611771</v>
+        <v>0.008520676097681838</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.005581666318604684</v>
+        <v>0.005589614484558234</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.00907064906402095</v>
+        <v>0.008744735419523074</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01575769553772271</v>
+        <v>0.01500774984961418</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03347860219111878</v>
+        <v>0.0367651083325153</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03261285909223135</v>
+        <v>0.03889230118437199</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03614552441988031</v>
+        <v>0.03710192896162127</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02477686894848326</v>
+        <v>0.02453393347548803</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04259571063162759</v>
+        <v>0.04333322731106931</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02836510886604458</v>
+        <v>0.0283568947693271</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03839184343794381</v>
+        <v>0.03795091667101405</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04269397201135284</v>
+        <v>0.04223110162022378</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03066093782237566</v>
+        <v>0.02973638331693532</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02362546893178107</v>
+        <v>0.02354811230396069</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02852735154265714</v>
+        <v>0.02926066199971739</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02947131266339757</v>
+        <v>0.02857164300674473</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02148416375965651</v>
+        <v>0.02248635040100231</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.004077101088189906</v>
+        <v>0.003921270602034451</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01313477863515427</v>
+        <v>0.01321427712329959</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01547328938516529</v>
+        <v>0.0147982976883377</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.006289110550404196</v>
+        <v>0.006270908476072776</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.009865230097408561</v>
+        <v>0.009656406415774444</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01541187576370608</v>
+        <v>0.01551726403300491</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02395277145384593</v>
+        <v>0.02384281674133358</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.005084724303863232</v>
+        <v>0.005152864541124448</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.0112572149961225</v>
+        <v>0.009870188034612504</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.01640633492853081</v>
+        <v>0.01712894115356415</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07806750503371443</v>
+        <v>0.07903334064783434</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02659068884988264</v>
+        <v>0.02290975201980498</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04408334624120818</v>
+        <v>0.03989342728153755</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04292005384103743</v>
+        <v>0.04049343135706293</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06155679821391694</v>
+        <v>0.05948455303799607</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.04011437911966725</v>
+        <v>0.04280630796844542</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.05383440193166264</v>
+        <v>0.04796538159883187</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.03794550672100153</v>
+        <v>0.03919554027739808</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.05709256552093354</v>
+        <v>0.05965751769760498</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.02682249885039553</v>
+        <v>0.02827964390110025</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.03835117191276549</v>
+        <v>0.03726852963290241</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.0336270706511874</v>
+        <v>0.0334441010941444</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.006365921999581962</v>
+        <v>0.006328073270280445</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.006840403488868302</v>
+        <v>0.005746609801107022</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.008941647705867074</v>
+        <v>0.008373611052023203</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.005587998550217313</v>
+        <v>0.005439992679404378</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.003788477194173792</v>
+        <v>0.003811054296943855</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.005611679422223573</v>
+        <v>0.005662510000774572</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01556326613269383</v>
+        <v>0.0154869857575765</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.009807918675002315</v>
+        <v>0.009335977261095104</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.008524333181531117</v>
+        <v>0.008417282672211182</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.003592365001921922</v>
+        <v>0.00347625708499765</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.01537332404626964</v>
+        <v>0.01497350084830711</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05824671631640479</v>
+        <v>0.05809373296221072</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06051624154801086</v>
+        <v>0.05527673981175361</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03064527274644439</v>
+        <v>0.02727207484635095</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04287739529925987</v>
+        <v>0.04050089187324257</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06104101918922237</v>
+        <v>0.0555578310471629</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03705659864338357</v>
+        <v>0.03357287648000006</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04771344259763688</v>
+        <v>0.04686976743463242</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03739637732044852</v>
+        <v>0.03898915414503566</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04395280815195923</v>
+        <v>0.04313885581462783</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.03403846177962688</v>
+        <v>0.03322522232389828</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.03535966997406046</v>
+        <v>0.03203459388405398</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.03306927770925444</v>
+        <v>0.03432552773256144</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.03233044490673399</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.03843387045243834</v>
+        <v>0.03843387045243835</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02742923039110737</v>
+        <v>0.02794781488571579</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02741024511457341</v>
+        <v>0.0271982512939499</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0222116278253261</v>
+        <v>0.0223282750856003</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02788110127338435</v>
+        <v>0.02809504227481209</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02756520095078297</v>
+        <v>0.02832608797436155</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02969286582727178</v>
+        <v>0.02973447382600873</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02956883261323375</v>
+        <v>0.02884728732455767</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.03628628425703694</v>
+        <v>0.03545531454316778</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02973329122487542</v>
+        <v>0.02964120030179159</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02992560407206877</v>
+        <v>0.03029611492634642</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.02795793355720924</v>
+        <v>0.02784195026769296</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.0341340879324009</v>
+        <v>0.03365402572286653</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04232869421713061</v>
+        <v>0.04346974825348331</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.0419736786117124</v>
+        <v>0.04084683314317323</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03529083119505452</v>
+        <v>0.03585111023644691</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.04336332814405161</v>
+        <v>0.04363801519165089</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.04162041053303379</v>
+        <v>0.04249731685918948</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04340977623234475</v>
+        <v>0.04275910362342579</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.04314815243822613</v>
+        <v>0.04304862537628566</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.04936353356664729</v>
+        <v>0.04873128466736911</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.03967023052524257</v>
+        <v>0.03932184875387561</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.03975455504274893</v>
+        <v>0.0397417678708707</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.03761863892157622</v>
+        <v>0.03786602687634472</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.04407063132243794</v>
+        <v>0.04380254174236595</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12981</v>
+        <v>13622</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>23428</v>
+        <v>23397</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12161</v>
+        <v>12375</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13556</v>
+        <v>14485</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>18243</v>
+        <v>18617</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>22972</v>
+        <v>23072</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>18386</v>
+        <v>18419</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>14460</v>
+        <v>13235</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>36353</v>
+        <v>36577</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>51205</v>
+        <v>51390</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>33837</v>
+        <v>35257</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>34601</v>
+        <v>34253</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>30594</v>
+        <v>30341</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45690</v>
+        <v>45006</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>30135</v>
+        <v>29115</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>46010</v>
+        <v>47709</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>37381</v>
+        <v>37779</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>45144</v>
+        <v>44481</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>37124</v>
+        <v>37895</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>41658</v>
+        <v>40990</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>62037</v>
+        <v>62172</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>82396</v>
+        <v>81983</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>59725</v>
+        <v>59585</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>77030</v>
+        <v>78622</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>14575</v>
+        <v>14583</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>17571</v>
+        <v>18736</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>11026</v>
+        <v>11490</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>14797</v>
+        <v>14622</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>14234</v>
+        <v>12971</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>20357</v>
+        <v>20386</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>19140</v>
+        <v>17868</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>25994</v>
+        <v>26369</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>32218</v>
+        <v>33508</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>44160</v>
+        <v>43104</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>33938</v>
+        <v>33095</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>46716</v>
+        <v>47045</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>35442</v>
+        <v>34037</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>38871</v>
+        <v>40274</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>27784</v>
+        <v>27552</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>41008</v>
+        <v>40075</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>34042</v>
+        <v>33652</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>45569</v>
+        <v>44632</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>39721</v>
+        <v>38431</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>52703</v>
+        <v>52396</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>59402</v>
+        <v>59729</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>75747</v>
+        <v>76464</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>59738</v>
+        <v>59569</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>80274</v>
+        <v>82672</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5508</v>
+        <v>5396</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9265</v>
+        <v>8983</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12085</v>
+        <v>11828</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11820</v>
+        <v>12674</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9665</v>
+        <v>9335</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>13973</v>
+        <v>14385</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8326</v>
+        <v>8433</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>16770</v>
+        <v>16363</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>18163</v>
+        <v>19206</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>26904</v>
+        <v>26799</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>24703</v>
+        <v>23689</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>32961</v>
+        <v>33094</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17639</v>
+        <v>18172</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25965</v>
+        <v>26217</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>29999</v>
+        <v>29698</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>30983</v>
+        <v>30629</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>26775</v>
+        <v>26394</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>32295</v>
+        <v>32153</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22969</v>
+        <v>23608</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>32775</v>
+        <v>33489</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>39006</v>
+        <v>39439</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>50539</v>
+        <v>50650</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>47282</v>
+        <v>47352</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>56586</v>
+        <v>57044</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8323</v>
+        <v>8263</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5239</v>
+        <v>5041</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3935</v>
+        <v>4124</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>14597</v>
+        <v>15371</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4833</v>
+        <v>5123</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5455</v>
+        <v>5511</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9963</v>
+        <v>9417</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>17676</v>
+        <v>17799</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>16595</v>
+        <v>16292</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>13808</v>
+        <v>13681</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>15807</v>
+        <v>16686</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>37586</v>
+        <v>37567</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>24403</v>
+        <v>24551</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>20882</v>
+        <v>21337</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16760</v>
+        <v>16739</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>33497</v>
+        <v>35056</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18038</v>
+        <v>18529</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>20600</v>
+        <v>21250</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>25962</v>
+        <v>25482</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>32942</v>
+        <v>34229</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>37781</v>
+        <v>35687</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>36130</v>
+        <v>35271</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>36680</v>
+        <v>38251</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>63063</v>
+        <v>62642</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1067</v>
+        <v>1079</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2064</v>
+        <v>2095</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3614</v>
+        <v>3222</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2275</v>
+        <v>2927</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1906</v>
+        <v>1960</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>3241</v>
+        <v>3170</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>12191</v>
+        <v>11899</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5054</v>
+        <v>5039</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4198</v>
+        <v>4204</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>6956</v>
+        <v>6706</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>18739</v>
+        <v>17847</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9118</v>
+        <v>10013</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11783</v>
+        <v>14052</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>13410</v>
+        <v>13765</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>14701</v>
+        <v>14557</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>13592</v>
+        <v>13827</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>11083</v>
+        <v>11079</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>15198</v>
+        <v>15024</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>25439</v>
+        <v>25163</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>18134</v>
+        <v>17587</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>17767</v>
+        <v>17709</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>21877</v>
+        <v>22439</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>35047</v>
+        <v>33978</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4571</v>
+        <v>4784</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>938</v>
+        <v>902</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5224</v>
+        <v>5256</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>3821</v>
+        <v>3654</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1890</v>
+        <v>1885</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2732</v>
+        <v>2674</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>6611</v>
+        <v>6656</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>11011</v>
+        <v>10961</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>2863</v>
+        <v>2901</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>5708</v>
+        <v>5005</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>13563</v>
+        <v>14160</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>16610</v>
+        <v>16816</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6980</v>
+        <v>6014</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>10145</v>
+        <v>9180</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>17071</v>
+        <v>16106</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>15201</v>
+        <v>14689</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>12058</v>
+        <v>12867</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>14909</v>
+        <v>13284</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>16276</v>
+        <v>16812</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>26246</v>
+        <v>27425</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>15103</v>
+        <v>15924</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>19447</v>
+        <v>18898</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>27798</v>
+        <v>27647</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1265</v>
+        <v>1063</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2704</v>
+        <v>2532</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1163</v>
+        <v>1133</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1146</v>
+        <v>1153</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1279</v>
+        <v>1290</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>6938</v>
+        <v>6904</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>3285</v>
+        <v>3127</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>4154</v>
+        <v>4102</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1347</v>
+        <v>1303</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>11502</v>
+        <v>11203</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>7384</v>
+        <v>7364</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>11191</v>
+        <v>10222</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>4507</v>
+        <v>4011</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>12967</v>
+        <v>12248</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>12709</v>
+        <v>11568</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>11206</v>
+        <v>10153</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>10873</v>
+        <v>10681</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>16671</v>
+        <v>17381</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>14723</v>
+        <v>14450</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>16588</v>
+        <v>16192</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>13258</v>
+        <v>12011</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>24742</v>
+        <v>25682</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>67332</v>
+        <v>68605</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>79892</v>
+        <v>79274</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>59179</v>
+        <v>59490</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>94731</v>
+        <v>95458</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>75554</v>
+        <v>77640</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>93423</v>
+        <v>93554</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>84783</v>
+        <v>82714</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>131554</v>
+        <v>128541</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>154485</v>
+        <v>154006</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>181378</v>
+        <v>183624</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>154653</v>
+        <v>154012</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>239728</v>
+        <v>236356</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>103906</v>
+        <v>106707</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>122339</v>
+        <v>119055</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>94027</v>
+        <v>95519</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>147335</v>
+        <v>148268</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>114079</v>
+        <v>116482</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>136581</v>
+        <v>134534</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>123719</v>
+        <v>123434</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>178965</v>
+        <v>176673</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>206114</v>
+        <v>204304</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>240952</v>
+        <v>240874</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>208093</v>
+        <v>209462</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>309514</v>
+        <v>307631</v>
       </c>
     </row>
     <row r="36">
